--- a/spliced/falling/2023-03-25_17-59-45/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-45/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,211 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.06276640295982359</v>
+        <v>0.0371100641787052</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5068654417991638</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0064140851609408</v>
+        <v>0.0224492978304624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0687223374843597</v>
+        <v>0.0600175112485885</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2246456891298294</v>
+        <v>-0.0474947728216648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1652390509843826</v>
+        <v>0.0047342055477201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2229658216238021</v>
+        <v>0.0438295826315879</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.113315500319004</v>
+        <v>-0.08277224004268641</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2180788964033126</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3182607889175415</v>
+        <v>-0.06276640295982359</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6488916277885437</v>
+        <v>-0.5068654417991638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4970915913581848</v>
+        <v>-0.0064140851609408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3697261810302734</v>
+        <v>-0.0687223374843597</v>
       </c>
       <c r="B6" t="n">
-        <v>1.551903128623962</v>
+        <v>-0.2246456891298294</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.230448916554451</v>
+        <v>0.1652390509843826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.451123982667923</v>
+        <v>-0.2229658216238021</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8857545852661133</v>
+        <v>-0.113315500319004</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.012661814689636</v>
+        <v>0.2180788964033126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.1492038369178772</v>
+        <v>0.3182607889175415</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.078635334968567</v>
+        <v>0.6488916277885437</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.738939762115479</v>
+        <v>0.4970915913581848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.247386813163757</v>
+        <v>0.3697261810302734</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.642922043800354</v>
+        <v>1.551903128623962</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3756821155548095</v>
+        <v>-0.230448916554451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.319607973098755</v>
+        <v>0.451123982667923</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2393064647912979</v>
+        <v>0.8857545852661133</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.242333650588989</v>
+        <v>-1.012661814689636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1510364264249801</v>
+        <v>-0.1492038369178772</v>
       </c>
       <c r="B11" t="n">
-        <v>2.41413950920105</v>
+        <v>-1.078635334968567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4211915731430053</v>
+        <v>-4.738939762115479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2503020465373993</v>
+        <v>-1.247386813163757</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.337489485740662</v>
+        <v>-1.642922043800354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0983493030071258</v>
+        <v>0.3756821155548095</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4132503271102905</v>
+        <v>2.319607973098755</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.2393064647912979</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5613851547241211</v>
+        <v>-2.242333650588989</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1337794959545135</v>
+        <v>0.1510364264249801</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3077233731746673</v>
+        <v>2.41413950920105</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0181732401251792</v>
+        <v>0.4211915731430053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0068722339347004</v>
+        <v>0.2503020465373993</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2590068578720093</v>
+        <v>-1.337489485740662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2180788964033126</v>
+        <v>0.0983493030071258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0940732508897781</v>
+        <v>-0.4132503271102905</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0920879393815994</v>
+        <v>0.2756529450416565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.011148290708661</v>
+        <v>-0.5613851547241211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0429132841527462</v>
+        <v>-0.1337794959545135</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0099265603348612</v>
+        <v>0.3077233731746673</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2417499274015426</v>
+        <v>-0.0181732401251792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0386372283101081</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07590000331401819</v>
+        <v>-0.2590068578720093</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0108428578823804</v>
+        <v>0.2180788964033126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0050396383740007</v>
+        <v>-0.0940732508897781</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0752891451120376</v>
+        <v>-0.0920879393815994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1829541474580764</v>
+        <v>0.011148290708661</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0255036242306232</v>
+        <v>-0.0429132841527462</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06322455406188961</v>
+        <v>-0.0099265603348612</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1140790879726409</v>
+        <v>-0.2417499274015426</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.0386372283101081</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.07590000331401819</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0108428578823804</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-59-45/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-45/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,186 +452,186 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0371100641787052</v>
+        <v>0.308792382478714</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0024434609804302</v>
+        <v>-0.2591595947742462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0224492978304624</v>
+        <v>0.3060434758663177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0600175112485885</v>
+        <v>0.197004035115242</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0474947728216648</v>
+        <v>0.0836885422468185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0047342055477201</v>
+        <v>0.0430659987032413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0438295826315879</v>
+        <v>0.0916297882795333</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08277224004268641</v>
+        <v>0.034972034394741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.0708603709936142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.06276640295982359</v>
+        <v>0.0360410511493682</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5068654417991638</v>
+        <v>0.06902777403593061</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0064140851609408</v>
+        <v>-0.0134390350431203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0687223374843597</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2246456891298294</v>
+        <v>0.0655152946710586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1652390509843826</v>
+        <v>-0.0574213340878486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2229658216238021</v>
+        <v>-0.1020144969224929</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.113315500319004</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2180788964033126</v>
+        <v>-0.0577267669141292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3182607889175415</v>
+        <v>-0.0662788823246955</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6488916277885437</v>
+        <v>-0.0591012127697467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4970915913581848</v>
+        <v>-0.0519235469400882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3697261810302734</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="B9" t="n">
-        <v>1.551903128623962</v>
+        <v>0.016951510682702</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.230448916554451</v>
+        <v>0.0032070425804704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.451123982667923</v>
+        <v>-0.0189368221908807</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8857545852661133</v>
+        <v>0.0145080499351024</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.012661814689636</v>
+        <v>0.0222965814173221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1492038369178772</v>
+        <v>-0.0164933614432811</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.078635334968567</v>
+        <v>-0.0006108652451075</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.738939762115479</v>
+        <v>-0.0030543261673301</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.247386813163757</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.642922043800354</v>
+        <v>-0.0021380283869802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3756821155548095</v>
+        <v>0.0117591563612222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.319607973098755</v>
+        <v>0.0371100641787052</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2393064647912979</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.242333650588989</v>
+        <v>0.0224492978304624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1510364264249801</v>
+        <v>0.0600175112485885</v>
       </c>
       <c r="B14" t="n">
-        <v>2.41413950920105</v>
+        <v>-0.0474947728216648</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4211915731430053</v>
+        <v>0.0047342055477201</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2503020465373993</v>
+        <v>0.0438295826315879</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.337489485740662</v>
+        <v>-0.08277224004268641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0983493030071258</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.4132503271102905</v>
+        <v>-0.06276640295982359</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.5068654417991638</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5613851547241211</v>
+        <v>-0.0064140851609408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1337794959545135</v>
+        <v>-0.0687223374843597</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3077233731746673</v>
+        <v>-0.2246456891298294</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0181732401251792</v>
+        <v>0.1652390509843826</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0068722339347004</v>
+        <v>-0.2229658216238021</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2590068578720093</v>
+        <v>-0.113315500319004</v>
       </c>
       <c r="C18" t="n">
         <v>0.2180788964033126</v>
@@ -639,35 +639,145 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0940732508897781</v>
+        <v>0.3182607889175415</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0920879393815994</v>
+        <v>0.6488916277885437</v>
       </c>
       <c r="C19" t="n">
-        <v>0.011148290708661</v>
+        <v>0.4970915913581848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0429132841527462</v>
+        <v>0.3697261810302734</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0099265603348612</v>
+        <v>1.551903128623962</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2417499274015426</v>
+        <v>-0.230448916554451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0386372283101081</v>
+        <v>0.451123982667923</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.8857545852661133</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0108428578823804</v>
+        <v>-1.012661814689636</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1492038369178772</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.078635334968567</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.738939762115479</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.247386813163757</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.642922043800354</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3756821155548095</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.319607973098755</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2393064647912979</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.242333650588989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1510364264249801</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.41413950920105</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4211915731430053</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2503020465373993</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.337489485740662</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0983493030071258</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.4132503271102905</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2756529450416565</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5613851547241211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1337794959545135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3077233731746673</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0181732401251792</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0068722339347004</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.2590068578720093</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2180788964033126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0940732508897781</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0920879393815994</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.011148290708661</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0429132841527462</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0099265603348612</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2417499274015426</v>
       </c>
     </row>
   </sheetData>
